--- a/biology/Botanique/Fédération_nationale_des_salariés_de_la_construction,_bois_et_ameublement_CGT/Fédération_nationale_des_salariés_de_la_construction,_bois_et_ameublement_CGT.xlsx
+++ b/biology/Botanique/Fédération_nationale_des_salariés_de_la_construction,_bois_et_ameublement_CGT/Fédération_nationale_des_salariés_de_la_construction,_bois_et_ameublement_CGT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_salari%C3%A9s_de_la_construction,_bois_et_ameublement_CGT</t>
+          <t>Fédération_nationale_des_salariés_de_la_construction,_bois_et_ameublement_CGT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">la Fédération nationale des salariés de la construction, bois et ameublement CGT (FNSCBA) est la fédération professionnelle qui rassemble des salariés syndiqués des secteurs de la Construction, du Bois et de l'Ameublement. Elle est une des fédérations professionnelles de la Confédération générale du travail. Elle est aussi adhérente à la Fédération européenne des travailleurs du bâtiment et du bois, à l'Internationale des travailleurs du bâtiment et du bois.
-Éric Aubin a été le premier Secrétaire Général de la FNSCBA CGT. Il fut aussi élu à la Commission Confédéral de la CGT[1].
-Le 4ème congrès s'est déroulé du 31 mai au 4 juin 2021, durant lequel son secrétaire général Bruno BOTHUA fut réélus[2].
-En 2020, la FNSCBA compte environ 17 000 adhérents[3].
+Éric Aubin a été le premier Secrétaire Général de la FNSCBA CGT. Il fut aussi élu à la Commission Confédéral de la CGT.
+Le 4ème congrès s'est déroulé du 31 mai au 4 juin 2021, durant lequel son secrétaire général Bruno BOTHUA fut réélus.
+En 2020, la FNSCBA compte environ 17 000 adhérents.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_salari%C3%A9s_de_la_construction,_bois_et_ameublement_CGT</t>
+          <t>Fédération_nationale_des_salariés_de_la_construction,_bois_et_ameublement_CGT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération nationale des salariés de la construction, bois et ameublement CGT est issue de la fusion en 2011 de la Fédération des travailleurs des industries du bois, de l'ameublement et connexes CGT et de la Fédération nationale des salariés de la construction CGT.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_salari%C3%A9s_de_la_construction,_bois_et_ameublement_CGT</t>
+          <t>Fédération_nationale_des_salariés_de_la_construction,_bois_et_ameublement_CGT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
